--- a/Texts/Город Сокровищ/Все персонажи/Шеймин 5.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шеймин 5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -172,6 +172,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïîé ïáúœîï çéâôó äàìûšå ïó\nãïñú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How was the summit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re so happy to have so many\nof you climbing our mountain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как вам вершина?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы так рады, что многие смогли\nпопасть на нашу гору.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë âàí âåñšéîà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óàë ñàäú, œóï íîïãéå òíïãìé\nðïðàòóû îà îàšô ãïñô.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0309.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0407.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2006.ssb</t>
   </si>
 </sst>
 </file>
@@ -202,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,11 +273,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -268,6 +307,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,6 +851,67 @@
         <v>50</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
+        <v>41</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
